--- a/downloads/file.xlsx
+++ b/downloads/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="-75" windowWidth="10155" windowHeight="9615"/>
+    <workbookView xWindow="10860" yWindow="-345" windowWidth="10155" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -52,21 +52,6 @@
     <t xml:space="preserve">Шлейф аудио iPhone 4S (черный) </t>
   </si>
   <si>
-    <t xml:space="preserve">Микросхема контролер питания iPad mini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микросхема контролер питания iPhone 4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микросхема контролер питания iPhone 4S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микросхема контролер питания iPhone 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микросхема контролер питания iPhone 5S </t>
-  </si>
-  <si>
     <t>Шлейфы</t>
   </si>
   <si>
@@ -425,9 +410,6 @@
   </si>
   <si>
     <t>Микросхема Wifi iPhone 4S, original</t>
-  </si>
-  <si>
-    <t>Микросхема Wifi iPhone 5S, original</t>
   </si>
   <si>
     <t>Микросхема Usb iPhone 5, original</t>
@@ -1658,9 +1640,6 @@
     <t>Зарядное устройство для iPhone 5 (high copy)</t>
   </si>
   <si>
-    <t>Прайс от 23.03.15</t>
-  </si>
-  <si>
     <t>MagSafe 2 45w</t>
   </si>
   <si>
@@ -1671,6 +1650,27 @@
   </si>
   <si>
     <t>AM24143</t>
+  </si>
+  <si>
+    <t>Микросхема пит. iPhone 5, 5S; iPad Air (PM8018)</t>
+  </si>
+  <si>
+    <t>Микросхема пит. iPad mini (343S0593)</t>
+  </si>
+  <si>
+    <t>Микросхема пит. iPhone 4  (338S0867/338S0874)</t>
+  </si>
+  <si>
+    <t>Микросхема пит. iPhone 4S(338S0973)</t>
+  </si>
+  <si>
+    <t>Микросхема пит. iPhone 5 (338s1131)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wi-Fi iPhone 5C, для bluetooth (339S0209) </t>
+  </si>
+  <si>
+    <t>Прайс от 15.04.15</t>
   </si>
 </sst>
 </file>
@@ -2283,10 +2283,10 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2647,27 +2647,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H266" sqref="H266"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="0.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="78" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="78"/>
       <c r="D1" s="73" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E1" s="74"/>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="74" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E2" s="74"/>
     </row>
@@ -2683,14 +2683,14 @@
       <c r="B3" s="28"/>
       <c r="C3" s="47"/>
       <c r="D3" s="75" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E3" s="76"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="29"/>
       <c r="D4" s="77" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E4" s="77"/>
     </row>
@@ -2708,24 +2708,24 @@
     <row r="6" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="27" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D7" s="39">
         <v>18</v>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="8" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D8" s="40">
         <v>18</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="9" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="40">
         <v>22</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="10" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" s="40">
         <v>22</v>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="11" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="40">
         <v>18</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="12" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12" s="40">
         <v>18</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="13" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" s="40">
         <v>22</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="14" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="40">
         <v>22</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="15" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15" s="40">
         <v>15</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="16" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D16" s="40">
         <v>15</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="17" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D17" s="40">
         <v>15</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="18" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D18" s="40">
         <v>15</v>
@@ -2926,16 +2926,16 @@
     </row>
     <row r="19" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D19" s="40">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6">
         <v>36</v>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="20" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D20" s="40">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" s="6">
         <v>36</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="21" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D21" s="40">
         <v>36</v>
@@ -2972,15 +2972,15 @@
         <v>38</v>
       </c>
       <c r="F21" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D22" s="40">
         <v>36</v>
@@ -2989,21 +2989,21 @@
         <v>38</v>
       </c>
       <c r="F22" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D23" s="40">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23" s="6">
         <v>38</v>
@@ -3011,16 +3011,16 @@
     </row>
     <row r="24" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D24" s="40">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="6">
         <v>38</v>
@@ -3028,50 +3028,50 @@
     </row>
     <row r="25" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D25" s="45">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D26" s="45">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D27" s="45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7">
         <v>36</v>
@@ -3079,27 +3079,27 @@
     </row>
     <row r="28" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D28" s="40">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E28" s="6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F28" s="6">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D29" s="40">
         <v>140</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="30" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D30" s="40">
         <v>140</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="31" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D31" s="40">
         <v>130</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="32" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D32" s="40">
         <v>130</v>
@@ -3164,47 +3164,47 @@
     </row>
     <row r="33" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D33" s="40">
+        <v>360</v>
+      </c>
+      <c r="E33" s="6">
         <v>380</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <v>400</v>
-      </c>
-      <c r="F33" s="6">
-        <v>420</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D34" s="40">
+        <v>360</v>
+      </c>
+      <c r="E34" s="6">
         <v>380</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <v>400</v>
-      </c>
-      <c r="F34" s="6">
-        <v>420</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D35" s="40">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="6">
         <v>60</v>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="36" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D36" s="40">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" s="6">
         <v>85</v>
@@ -3232,25 +3232,25 @@
     </row>
     <row r="37" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D37" s="40">
         <v>58</v>
       </c>
       <c r="E37" s="6">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F37" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="26"/>
       <c r="C38" s="60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="39" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D39" s="39">
         <v>12</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="40" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D40" s="40">
         <v>12</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="41" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D41" s="40">
         <v>16</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="42" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D42" s="40">
         <v>16</v>
@@ -3326,10 +3326,10 @@
     </row>
     <row r="43" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D43" s="40">
         <v>12</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D44" s="40">
         <v>12</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="45" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="36" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D45" s="40">
         <v>16</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="46" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D46" s="40">
         <v>16</v>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="47" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D47" s="40">
         <v>30</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="48" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D48" s="40">
         <v>30</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="49" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D49" s="40">
         <v>40</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="50" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D50" s="40">
         <v>40</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="51" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D51" s="40">
         <v>12</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="52" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D52" s="40">
         <v>12</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="53" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D53" s="40">
         <v>30</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="54" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D54" s="40">
         <v>30</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="55" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D55" s="45">
         <v>40</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="56" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D56" s="45">
         <v>40</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D57" s="40">
         <v>5</v>
@@ -3582,7 +3582,7 @@
     <row r="58" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49"/>
       <c r="C58" s="82" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" s="70"/>
       <c r="E58" s="71"/>
@@ -3590,78 +3590,78 @@
     </row>
     <row r="59" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D59" s="55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E59" s="42">
         <v>3.5</v>
       </c>
       <c r="F59" s="42">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D60" s="56">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="8">
         <v>3.5</v>
       </c>
       <c r="F60" s="8">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D61" s="56">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="E61" s="8">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="F61" s="8">
-        <v>4.8100000000000005</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D62" s="56">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E62" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F62" s="8">
-        <v>9.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D63" s="56">
         <v>10</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="64" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>2</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="65" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>3</v>
@@ -3709,27 +3709,27 @@
     </row>
     <row r="66" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="8">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F66" s="8">
-        <v>1.6900000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D67" s="56">
         <v>2</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="68" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D68" s="56">
         <v>1</v>
@@ -3760,78 +3760,78 @@
     </row>
     <row r="69" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D69" s="56">
         <v>3</v>
       </c>
       <c r="E69" s="8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F69" s="8">
-        <v>4.42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D70" s="56">
         <v>3</v>
       </c>
       <c r="E70" s="8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F70" s="8">
-        <v>4.42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D71" s="56">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E71" s="8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F71" s="8">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D72" s="56">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E72" s="8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F72" s="8">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D73" s="57">
         <v>10</v>
@@ -3840,168 +3840,168 @@
         <v>12</v>
       </c>
       <c r="F73" s="50">
-        <v>15.600000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="56">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E74" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74" s="8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="56">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E75" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F75" s="8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D76" s="56">
+        <v>5</v>
+      </c>
+      <c r="E76" s="8">
         <v>6</v>
       </c>
-      <c r="E76" s="8">
+      <c r="F76" s="8">
         <v>7</v>
-      </c>
-      <c r="F76" s="8">
-        <v>9.1</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C77" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="56">
+        <v>5</v>
+      </c>
+      <c r="E77" s="8">
         <v>6</v>
       </c>
-      <c r="E77" s="8">
+      <c r="F77" s="8">
         <v>7</v>
-      </c>
-      <c r="F77" s="8">
-        <v>9.1</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="56">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E78" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F78" s="8">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="56">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E79" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F79" s="8">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E80" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F80" s="8">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E81" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F81" s="8">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D82" s="56">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E82" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F82" s="8">
-        <v>5.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D83" s="58">
         <v>6</v>
@@ -4010,66 +4010,66 @@
         <v>8</v>
       </c>
       <c r="F83" s="20">
-        <v>10.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D84" s="58">
-        <v>7.8360000000000003</v>
+        <v>10</v>
       </c>
       <c r="E84" s="20">
-        <v>8.4890000000000008</v>
+        <v>12</v>
       </c>
       <c r="F84" s="20">
-        <v>11.035700000000002</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D85" s="58">
-        <v>7.8360000000000003</v>
+        <v>10</v>
       </c>
       <c r="E85" s="20">
-        <v>8.4890000000000008</v>
+        <v>12</v>
       </c>
       <c r="F85" s="20">
-        <v>11.035700000000002</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D86" s="58">
-        <v>8.8679999999999986</v>
+        <v>10</v>
       </c>
       <c r="E86" s="20">
-        <v>9.6069999999999993</v>
+        <v>12</v>
       </c>
       <c r="F86" s="20">
-        <v>12.489099999999999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="23" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D87" s="58">
         <v>7.8360000000000003</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="88" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D88" s="58">
         <v>3.4079999999999999</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="89" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D89" s="58">
         <v>9.7560000000000002</v>
@@ -4117,10 +4117,10 @@
     </row>
     <row r="90" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D90" s="58">
         <v>9.7560000000000002</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="91" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D91" s="58">
         <v>18.035999999999998</v>
@@ -4151,10 +4151,10 @@
     </row>
     <row r="92" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D92" s="58">
         <v>18.035999999999998</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="93" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D93" s="58">
         <v>18.311999999999998</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="94" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D94" s="58">
         <v>9.9</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="95" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D95" s="58">
         <v>12.42</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="96" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D96" s="58">
         <v>3.24</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="97" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D97" s="58">
         <v>2.6640000000000001</v>
@@ -4253,10 +4253,10 @@
     </row>
     <row r="98" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D98" s="58">
         <v>1.9799999999999998</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="99" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D99" s="58">
         <v>1.9799999999999998</v>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="100" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D100" s="58">
         <v>3.48</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="101" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D101" s="58">
         <v>3.48</v>
@@ -4321,10 +4321,10 @@
     </row>
     <row r="102" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D102" s="58">
         <v>1.8479999999999999</v>
@@ -4338,10 +4338,10 @@
     </row>
     <row r="103" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D103" s="58">
         <v>1.464</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="104" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D104" s="58">
         <v>2.7119999999999997</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="105" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D105" s="58">
         <v>1.02</v>
@@ -4389,10 +4389,10 @@
     </row>
     <row r="106" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D106" s="58">
         <v>4.056</v>
@@ -4406,10 +4406,10 @@
     </row>
     <row r="107" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D107" s="58">
         <v>0.85199999999999998</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="108" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D108" s="58">
         <v>1.3679999999999999</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="109" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D109" s="58">
         <v>13.26</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="110" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D110" s="58">
         <v>10.199999999999999</v>
@@ -4474,10 +4474,10 @@
     </row>
     <row r="111" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D111" s="58">
         <v>1.9559999999999997</v>
@@ -4491,10 +4491,10 @@
     </row>
     <row r="112" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D112" s="58">
         <v>1.944</v>
@@ -4508,10 +4508,10 @@
     </row>
     <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D113" s="58">
         <v>2.016</v>
@@ -4525,10 +4525,10 @@
     </row>
     <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D114" s="58">
         <v>3.024</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="115" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="23" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D115" s="58">
         <v>0.93600000000000005</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D116" s="58">
         <v>1.6080000000000001</v>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="117" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D117" s="58">
         <v>1.008</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D118" s="58">
         <v>3.2160000000000002</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D119" s="58">
         <v>1.1279999999999999</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D120" s="58">
         <v>1.38</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="121" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D121" s="58">
         <v>7.008</v>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="122" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D122" s="58">
         <v>7.8</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D123" s="58">
         <v>6.48</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="124" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D124" s="58">
         <v>2.7119999999999997</v>
@@ -4712,10 +4712,10 @@
     </row>
     <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D125" s="58">
         <v>1.44</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="126" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D126" s="58">
         <v>3.3119999999999998</v>
@@ -4747,7 +4747,7 @@
     <row r="127" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="4"/>
       <c r="C127" s="72" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D127" s="70"/>
       <c r="E127" s="71"/>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="128" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D128" s="39">
         <v>4</v>
@@ -4767,15 +4767,15 @@
         <v>5</v>
       </c>
       <c r="F128" s="42">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D129" s="44">
         <v>5</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="130" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D130" s="40">
         <v>16</v>
@@ -4801,49 +4801,49 @@
         <v>18</v>
       </c>
       <c r="F130" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>137</v>
+        <v>550</v>
       </c>
       <c r="D131" s="40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E131" s="8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F131" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="D132" s="40">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E132" s="8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F132" s="8">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>13</v>
+        <v>547</v>
       </c>
       <c r="D133" s="40">
         <v>5</v>
@@ -4857,59 +4857,59 @@
     </row>
     <row r="134" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>14</v>
+        <v>548</v>
       </c>
       <c r="D134" s="40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E134" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F134" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>15</v>
+        <v>549</v>
       </c>
       <c r="D135" s="40">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E135" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F135" s="8">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>16</v>
+        <v>545</v>
       </c>
       <c r="D136" s="40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E136" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F136" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="4"/>
       <c r="C137" s="72" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D137" s="70"/>
       <c r="E137" s="71"/>
@@ -4917,78 +4917,78 @@
     </row>
     <row r="138" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D138" s="39">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E138" s="42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F138" s="42">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D139" s="40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E139" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F139" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D140" s="40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E140" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F140" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D141" s="40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E141" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F141" s="8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D142" s="40">
         <v>25</v>
@@ -4997,15 +4997,15 @@
         <v>30</v>
       </c>
       <c r="F142" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D143" s="40">
         <v>25</v>
@@ -5014,47 +5014,47 @@
         <v>30</v>
       </c>
       <c r="F143" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D144" s="40">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E144" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F144" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D145" s="40">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E145" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F145" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4"/>
       <c r="C146" s="72" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D146" s="70"/>
       <c r="E146" s="71"/>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="147" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D147" s="40">
         <v>5</v>
@@ -5079,10 +5079,10 @@
     </row>
     <row r="148" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D148" s="40">
         <v>4.5</v>
@@ -5096,10 +5096,10 @@
     </row>
     <row r="149" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D149" s="40">
         <v>5</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="150" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D150" s="40">
         <v>6.5</v>
@@ -5130,10 +5130,10 @@
     </row>
     <row r="151" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D151" s="41">
         <v>7</v>
@@ -5148,7 +5148,7 @@
     <row r="152" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="4"/>
       <c r="C152" s="72" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D152" s="70"/>
       <c r="E152" s="71"/>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="153" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D153" s="40">
         <v>11.831999999999999</v>
@@ -5173,10 +5173,10 @@
     </row>
     <row r="154" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D154" s="40">
         <v>9.4439999999999991</v>
@@ -5190,10 +5190,10 @@
     </row>
     <row r="155" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D155" s="40">
         <v>1.6679999999999999</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="156" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D156" s="40">
         <v>1.6679999999999999</v>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="157" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D157" s="40">
         <v>0.85199999999999998</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="158" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D158" s="40">
         <v>0.85199999999999998</v>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="159" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D159" s="40">
         <v>1.1399999999999999</v>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="160" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D160" s="40">
         <v>1.1399999999999999</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="161" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D161" s="40">
         <v>1.536</v>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="162" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D162" s="40">
         <v>0.85199999999999998</v>
@@ -5326,10 +5326,10 @@
     </row>
     <row r="163" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D163" s="40">
         <v>0.54</v>
@@ -5343,10 +5343,10 @@
     </row>
     <row r="164" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D164" s="40">
         <v>7.6559999999999997</v>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="165" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D165" s="40">
         <v>1.1759999999999999</v>
@@ -5377,10 +5377,10 @@
     </row>
     <row r="166" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D166" s="40">
         <v>1.1759999999999999</v>
@@ -5394,10 +5394,10 @@
     </row>
     <row r="167" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D167" s="40">
         <v>0.432</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="168" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D168" s="40">
         <v>0.64800000000000002</v>
@@ -5428,10 +5428,10 @@
     </row>
     <row r="169" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D169" s="40">
         <v>2.04</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="170" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D170" s="40">
         <v>2.04</v>
@@ -5462,10 +5462,10 @@
     </row>
     <row r="171" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D171" s="40">
         <v>0.76800000000000002</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="172" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D172" s="40">
         <v>0.96</v>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="173" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D173" s="40">
         <v>0.68399999999999994</v>
@@ -5514,7 +5514,7 @@
     <row r="174" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="4"/>
       <c r="C174" s="72" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D174" s="70"/>
       <c r="E174" s="71"/>
@@ -5523,27 +5523,27 @@
     </row>
     <row r="175" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D175" s="39">
+        <v>15</v>
+      </c>
+      <c r="E175" s="42">
         <v>17</v>
       </c>
-      <c r="E175" s="42">
-        <v>19</v>
-      </c>
       <c r="F175" s="42">
-        <v>24.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D176" s="41">
         <v>16</v>
@@ -5552,13 +5552,13 @@
         <v>18</v>
       </c>
       <c r="F176" s="21">
-        <v>23.400000000000002</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="4"/>
       <c r="C177" s="69" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D177" s="70"/>
       <c r="E177" s="71"/>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="178" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="51" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D178" s="52">
         <v>6</v>
@@ -5583,10 +5583,10 @@
     </row>
     <row r="179" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D179" s="53">
         <v>8</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="180" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="D180" s="53">
         <v>8</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="181" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="D181" s="54">
         <v>9.5</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="182" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D182" s="54">
         <v>9.5</v>
@@ -5652,7 +5652,7 @@
     <row r="183" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="4"/>
       <c r="C183" s="69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D183" s="70"/>
       <c r="E183" s="71"/>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="184" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D184" s="39">
         <v>3.5</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="185" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D185" s="40">
         <v>4.5</v>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="186" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D186" s="40">
         <v>7</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="187" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D187" s="40">
         <v>7</v>
@@ -5728,10 +5728,10 @@
     </row>
     <row r="188" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D188" s="45">
         <v>8</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="189" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D189" s="45">
         <v>14.927999999999999</v>
@@ -5762,10 +5762,10 @@
     </row>
     <row r="190" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="12" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D190" s="45">
         <v>1.7999999999999998</v>
@@ -5779,10 +5779,10 @@
     </row>
     <row r="191" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D191" s="45">
         <v>1.512</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="192" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D192" s="40">
         <v>4.2480000000000002</v>
@@ -5814,7 +5814,7 @@
     <row r="193" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="59"/>
       <c r="C193" s="66" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D193" s="67"/>
       <c r="E193" s="68"/>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="194" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D194" s="45">
         <v>66</v>
@@ -5839,10 +5839,10 @@
     </row>
     <row r="195" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D195" s="45">
         <v>64.8</v>
@@ -5856,10 +5856,10 @@
     </row>
     <row r="196" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D196" s="45">
         <v>74.399999999999991</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="197" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D197" s="45">
         <v>30</v>
@@ -5890,10 +5890,10 @@
     </row>
     <row r="198" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D198" s="45">
         <v>74.399999999999991</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="199" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D199" s="45">
         <v>49.199999999999996</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="200" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D200" s="45">
         <v>40.799999999999997</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="201" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D201" s="45">
         <v>40.799999999999997</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="202" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D202" s="45">
         <v>48</v>
@@ -5975,10 +5975,10 @@
     </row>
     <row r="203" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D203" s="45">
         <v>42</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="204" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D204" s="45">
         <v>66</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="205" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D205" s="45">
         <v>6.24</v>
@@ -6026,10 +6026,10 @@
     </row>
     <row r="206" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D206" s="45">
         <v>36</v>
@@ -6043,10 +6043,10 @@
     </row>
     <row r="207" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D207" s="45">
         <v>33.6</v>
@@ -6061,7 +6061,7 @@
     <row r="208" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="59"/>
       <c r="C208" s="66" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D208" s="67"/>
       <c r="E208" s="68"/>
@@ -6069,10 +6069,10 @@
     </row>
     <row r="209" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D209" s="45">
         <v>42</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="210" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D210" s="45">
         <v>90</v>
@@ -6103,10 +6103,10 @@
     </row>
     <row r="211" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D211" s="45">
         <v>38.4</v>
@@ -6120,10 +6120,10 @@
     </row>
     <row r="212" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D212" s="45">
         <v>15</v>
@@ -6137,10 +6137,10 @@
     </row>
     <row r="213" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D213" s="45">
         <v>25.2</v>
@@ -6154,10 +6154,10 @@
     </row>
     <row r="214" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D214" s="45">
         <v>48</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="215" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D215" s="45">
         <v>45.6</v>
@@ -6188,10 +6188,10 @@
     </row>
     <row r="216" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D216" s="45">
         <v>48</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="217" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D217" s="45">
         <v>45.6</v>
@@ -6222,10 +6222,10 @@
     </row>
     <row r="218" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D218" s="45">
         <v>48</v>
@@ -6239,10 +6239,10 @@
     </row>
     <row r="219" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D219" s="45">
         <v>396</v>
@@ -6256,10 +6256,10 @@
     </row>
     <row r="220" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D220" s="45">
         <v>43.199999999999996</v>
@@ -6273,10 +6273,10 @@
     </row>
     <row r="221" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D221" s="45">
         <v>54</v>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="222" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D222" s="45">
         <v>93.6</v>
@@ -6307,10 +6307,10 @@
     </row>
     <row r="223" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D223" s="45">
         <v>36</v>
@@ -6324,10 +6324,10 @@
     </row>
     <row r="224" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D224" s="45">
         <v>36</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="225" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D225" s="45">
         <v>22.2</v>
@@ -6359,7 +6359,7 @@
     <row r="226" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="59"/>
       <c r="C226" s="66" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D226" s="67"/>
       <c r="E226" s="68"/>
@@ -6368,7 +6368,7 @@
     <row r="227" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="59"/>
       <c r="C227" s="66" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D227" s="67"/>
       <c r="E227" s="68"/>
@@ -6376,10 +6376,10 @@
     </row>
     <row r="228" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D228" s="44">
         <v>0.8</v>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="229" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D229" s="40">
         <v>0.8</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="230" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D230" s="44">
         <v>1</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="231" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D231" s="40">
         <v>1.2</v>
@@ -6444,10 +6444,10 @@
     </row>
     <row r="232" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D232" s="44">
         <v>2</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="233" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D233" s="40">
         <v>2</v>
@@ -6478,10 +6478,10 @@
     </row>
     <row r="234" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D234" s="44">
         <v>2</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="235" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D235" s="40">
         <v>2</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="236" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D236" s="44">
         <v>3</v>
@@ -6529,10 +6529,10 @@
     </row>
     <row r="237" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D237" s="40">
         <v>2</v>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="238" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D238" s="44">
         <v>2</v>
@@ -6563,10 +6563,10 @@
     </row>
     <row r="239" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D239" s="40">
         <v>2</v>
@@ -6580,10 +6580,10 @@
     </row>
     <row r="240" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D240" s="44">
         <v>2</v>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="241" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D241" s="40">
         <v>5</v>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="242" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D242" s="44">
         <v>3.5</v>
@@ -6632,7 +6632,7 @@
     <row r="243" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="59"/>
       <c r="C243" s="66" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D243" s="67"/>
       <c r="E243" s="68"/>
@@ -6640,10 +6640,10 @@
     </row>
     <row r="244" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D244" s="44">
         <v>4</v>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="245" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D245" s="40">
         <v>5</v>
@@ -6674,10 +6674,10 @@
     </row>
     <row r="246" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D246" s="44">
         <v>8</v>
@@ -6691,10 +6691,10 @@
     </row>
     <row r="247" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D247" s="40">
         <v>5</v>
@@ -6708,10 +6708,10 @@
     </row>
     <row r="248" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D248" s="44">
         <v>15</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="249" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D249" s="40">
         <v>10</v>
@@ -6742,10 +6742,10 @@
     </row>
     <row r="250" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D250" s="44">
         <v>6</v>
@@ -6759,10 +6759,10 @@
     </row>
     <row r="251" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D251" s="40">
         <v>8</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="252" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D252" s="44">
         <v>10</v>
@@ -6793,10 +6793,10 @@
     </row>
     <row r="253" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D253" s="40">
         <v>8</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="254" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D254" s="44">
         <v>6</v>
@@ -6828,7 +6828,7 @@
     <row r="255" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B255" s="59"/>
       <c r="C255" s="66" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D255" s="67"/>
       <c r="E255" s="68"/>
@@ -6836,10 +6836,10 @@
     </row>
     <row r="256" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D256" s="44">
         <v>6</v>
@@ -6853,10 +6853,10 @@
     </row>
     <row r="257" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D257" s="44">
         <v>8.5</v>
@@ -6870,10 +6870,10 @@
     </row>
     <row r="258" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D258" s="40">
         <v>9</v>
@@ -6887,10 +6887,10 @@
     </row>
     <row r="259" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D259" s="44">
         <v>4.5</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="260" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D260" s="40">
         <v>5</v>
@@ -6921,10 +6921,10 @@
     </row>
     <row r="261" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D261" s="44">
         <v>3</v>
@@ -6939,7 +6939,7 @@
     <row r="262" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" s="59"/>
       <c r="C262" s="66" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D262" s="67"/>
       <c r="E262" s="68"/>
@@ -6947,10 +6947,10 @@
     </row>
     <row r="263" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D263" s="40">
         <v>6</v>
@@ -6964,10 +6964,10 @@
     </row>
     <row r="264" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D264" s="44">
         <v>11</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="265" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D265" s="40">
         <v>12</v>
@@ -6998,10 +6998,10 @@
     </row>
     <row r="266" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D266" s="44">
         <v>8.5</v>
@@ -7015,10 +7015,10 @@
     </row>
     <row r="267" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D267" s="40">
         <v>11</v>
@@ -7032,10 +7032,10 @@
     </row>
     <row r="268" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D268" s="44">
         <v>12</v>
@@ -7049,10 +7049,10 @@
     </row>
     <row r="269" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D269" s="40">
         <v>6</v>
@@ -7066,110 +7066,110 @@
     </row>
     <row r="270" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="10" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D270" s="44">
         <v>40</v>
       </c>
       <c r="E270" s="20">
+        <v>45</v>
+      </c>
+      <c r="F270" s="20">
         <v>50</v>
-      </c>
-      <c r="F270" s="20">
-        <v>55</v>
       </c>
     </row>
     <row r="271" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D271" s="44">
         <v>40</v>
       </c>
       <c r="E271" s="20">
+        <v>45</v>
+      </c>
+      <c r="F271" s="20">
         <v>50</v>
-      </c>
-      <c r="F271" s="20">
-        <v>55</v>
       </c>
     </row>
     <row r="272" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D272" s="40">
         <v>45</v>
       </c>
       <c r="E272" s="20">
+        <v>50</v>
+      </c>
+      <c r="F272" s="20">
         <v>55</v>
-      </c>
-      <c r="F272" s="20">
-        <v>60</v>
       </c>
     </row>
     <row r="273" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="10" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D273" s="44">
         <v>40</v>
       </c>
       <c r="E273" s="20">
+        <v>45</v>
+      </c>
+      <c r="F273" s="20">
         <v>50</v>
-      </c>
-      <c r="F273" s="20">
-        <v>55</v>
       </c>
     </row>
     <row r="274" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D274" s="44">
         <v>40</v>
       </c>
       <c r="E274" s="20">
+        <v>45</v>
+      </c>
+      <c r="F274" s="20">
         <v>50</v>
-      </c>
-      <c r="F274" s="20">
-        <v>55</v>
       </c>
     </row>
     <row r="275" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D275" s="40">
         <v>45</v>
       </c>
       <c r="E275" s="20">
+        <v>50</v>
+      </c>
+      <c r="F275" s="20">
         <v>55</v>
-      </c>
-      <c r="F275" s="20">
-        <v>60</v>
       </c>
     </row>
     <row r="276" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B276" s="59"/>
       <c r="C276" s="66" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D276" s="67"/>
       <c r="E276" s="68"/>
@@ -7177,10 +7177,10 @@
     </row>
     <row r="277" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B277" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D277" s="40">
         <v>15</v>
@@ -7195,7 +7195,7 @@
     <row r="278" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="59"/>
       <c r="C278" s="66" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D278" s="67"/>
       <c r="E278" s="68"/>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="279" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D279" s="40">
         <v>15</v>
@@ -7220,10 +7220,10 @@
     </row>
     <row r="280" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D280" s="44">
         <v>10</v>
@@ -7237,10 +7237,10 @@
     </row>
     <row r="281" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D281" s="40">
         <v>5</v>
@@ -7254,10 +7254,10 @@
     </row>
     <row r="282" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D282" s="44">
         <v>10</v>
@@ -7271,10 +7271,10 @@
     </row>
     <row r="283" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B283" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D283" s="40">
         <v>13</v>
@@ -7289,7 +7289,7 @@
     <row r="284" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B284" s="59"/>
       <c r="C284" s="66" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D284" s="67"/>
       <c r="E284" s="68"/>
@@ -7297,10 +7297,10 @@
     </row>
     <row r="285" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D285" s="40">
         <v>3</v>
@@ -7314,10 +7314,10 @@
     </row>
     <row r="286" spans="2:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="17" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D286" s="63">
         <v>5</v>
@@ -7330,23 +7330,23 @@
       </c>
     </row>
     <row r="287" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="C287" s="65"/>
-      <c r="D287" s="65"/>
-      <c r="E287" s="65"/>
+      <c r="B287" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C287" s="64"/>
+      <c r="D287" s="64"/>
+      <c r="E287" s="64"/>
     </row>
     <row r="288" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="C288" s="64"/>
+      <c r="B288" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="C288" s="65"/>
       <c r="D288" s="46"/>
       <c r="E288" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="C152:E152"/>
     <mergeCell ref="C127:E127"/>
@@ -7359,7 +7359,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B287:E287"/>
     <mergeCell ref="C226:E226"/>
     <mergeCell ref="C183:E183"/>
     <mergeCell ref="C174:E174"/>
